--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H2">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I2">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J2">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>1.352673849571071</v>
+        <v>7.261790020740889</v>
       </c>
       <c r="R2">
-        <v>1.352673849571071</v>
+        <v>65.356110186668</v>
       </c>
       <c r="S2">
-        <v>0.0001156917890239523</v>
+        <v>0.0004053093216499257</v>
       </c>
       <c r="T2">
-        <v>0.0001156917890239523</v>
+        <v>0.0004675882217952748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H3">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I3">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J3">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>85.54508268541248</v>
+        <v>366.1313494475202</v>
       </c>
       <c r="R3">
-        <v>85.54508268541248</v>
+        <v>3295.182145027682</v>
       </c>
       <c r="S3">
-        <v>0.007316518805487043</v>
+        <v>0.02043524371477297</v>
       </c>
       <c r="T3">
-        <v>0.007316518805487043</v>
+        <v>0.02357527636336194</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H4">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I4">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J4">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>0.6353345227030983</v>
+        <v>0.7931705906273334</v>
       </c>
       <c r="R4">
-        <v>0.6353345227030983</v>
+        <v>7.138535315646</v>
       </c>
       <c r="S4">
-        <v>5.433903197249495E-05</v>
+        <v>4.426999859836711E-05</v>
       </c>
       <c r="T4">
-        <v>5.433903197249495E-05</v>
+        <v>5.107242497957874E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H5">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I5">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J5">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>26.99314052493296</v>
+        <v>3.928268522906</v>
       </c>
       <c r="R5">
-        <v>26.99314052493296</v>
+        <v>35.354416706154</v>
       </c>
       <c r="S5">
-        <v>0.002308675309790825</v>
+        <v>0.0002192522567755746</v>
       </c>
       <c r="T5">
-        <v>0.002308675309790825</v>
+        <v>0.0002529420553491252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>138.372223684612</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H6">
-        <v>138.372223684612</v>
+        <v>17.988719</v>
       </c>
       <c r="I6">
-        <v>0.8997423170515768</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J6">
-        <v>0.8997423170515768</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>124.2501230493507</v>
+        <v>114.338852362098</v>
       </c>
       <c r="R6">
-        <v>124.2501230493507</v>
+        <v>686.0331141725879</v>
       </c>
       <c r="S6">
-        <v>0.01062689208236248</v>
+        <v>0.006381705138368186</v>
       </c>
       <c r="T6">
-        <v>0.01062689208236248</v>
+        <v>0.004908202202249044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H7">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J7">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>7857.760430054738</v>
+        <v>208.8260170393445</v>
       </c>
       <c r="R7">
-        <v>7857.760430054738</v>
+        <v>1879.4341533541</v>
       </c>
       <c r="S7">
-        <v>0.6720602768826492</v>
+        <v>0.01165540879966634</v>
       </c>
       <c r="T7">
-        <v>0.6720602768826492</v>
+        <v>0.01344635216566818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H8">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J8">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>58.35877780027477</v>
+        <v>10528.77475112746</v>
       </c>
       <c r="R8">
-        <v>58.35877780027477</v>
+        <v>94758.97276014714</v>
       </c>
       <c r="S8">
-        <v>0.004991322491453516</v>
+        <v>0.5876527054618623</v>
       </c>
       <c r="T8">
-        <v>0.004991322491453516</v>
+        <v>0.6779500714701729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H9">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J9">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>2479.460242966068</v>
+        <v>22.80906702071667</v>
       </c>
       <c r="R9">
-        <v>2479.460242966068</v>
+        <v>205.28160318645</v>
       </c>
       <c r="S9">
-        <v>0.2120638255951115</v>
+        <v>0.001273064555051836</v>
       </c>
       <c r="T9">
-        <v>0.2120638255951115</v>
+        <v>0.00146868073278963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.9123071549377</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H10">
-        <v>13.9123071549377</v>
+        <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.09046245801214881</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J10">
-        <v>0.09046245801214881</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>12.49243402954436</v>
+        <v>112.96452626095</v>
       </c>
       <c r="R10">
-        <v>12.49243402954436</v>
+        <v>1016.68073634855</v>
       </c>
       <c r="S10">
-        <v>0.001068455668452509</v>
+        <v>0.006304998544237658</v>
       </c>
       <c r="T10">
-        <v>0.001068455668452509</v>
+        <v>0.007273810150037103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.9123071549377</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H11">
-        <v>13.9123071549377</v>
+        <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.09046245801214881</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J11">
-        <v>0.09046245801214881</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>790.0398919800983</v>
+        <v>3288.022245676349</v>
       </c>
       <c r="R11">
-        <v>790.0398919800983</v>
+        <v>19728.1334740581</v>
       </c>
       <c r="S11">
-        <v>0.06757070710907186</v>
+        <v>0.1835175710339502</v>
       </c>
       <c r="T11">
-        <v>0.06757070710907186</v>
+        <v>0.1411443065403913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H12">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I12">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J12">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>5.867544947421929</v>
+        <v>0.1051435939942222</v>
       </c>
       <c r="R12">
-        <v>5.867544947421929</v>
+        <v>0.946292345948</v>
       </c>
       <c r="S12">
-        <v>0.0005018406856619197</v>
+        <v>5.868481274715449E-06</v>
       </c>
       <c r="T12">
-        <v>0.0005018406856619197</v>
+        <v>6.770218638724383E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.260459</v>
+      </c>
+      <c r="I13">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J13">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N13">
+        <v>183.180478</v>
+      </c>
+      <c r="O13">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P13">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q13">
+        <v>5.301222679933556</v>
+      </c>
+      <c r="R13">
+        <v>47.711004119402</v>
+      </c>
+      <c r="S13">
+        <v>0.0002958822772597678</v>
+      </c>
+      <c r="T13">
+        <v>0.0003413468689085025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.260459</v>
+      </c>
+      <c r="I14">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J14">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.132278</v>
+      </c>
+      <c r="N14">
+        <v>0.396834</v>
+      </c>
+      <c r="O14">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P14">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q14">
+        <v>0.01148433186733333</v>
+      </c>
+      <c r="R14">
+        <v>0.103358986806</v>
+      </c>
+      <c r="S14">
+        <v>6.409861405324137E-07</v>
+      </c>
+      <c r="T14">
+        <v>7.394785997688939E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.260459</v>
+      </c>
+      <c r="I15">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J15">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.655122</v>
+      </c>
+      <c r="N15">
+        <v>1.965366</v>
+      </c>
+      <c r="O15">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P15">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q15">
+        <v>0.056877473666</v>
+      </c>
+      <c r="R15">
+        <v>0.511897262994</v>
+      </c>
+      <c r="S15">
+        <v>3.174557540618061E-06</v>
+      </c>
+      <c r="T15">
+        <v>3.662352766429772E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.260459</v>
+      </c>
+      <c r="I16">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J16">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.068426</v>
+      </c>
+      <c r="N16">
+        <v>38.136852</v>
+      </c>
+      <c r="O16">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P16">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q16">
+        <v>1.655514389178</v>
+      </c>
+      <c r="R16">
+        <v>9.933086335067999</v>
+      </c>
+      <c r="S16">
+        <v>9.24008284655644E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.10659517998799E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.181466</v>
+      </c>
+      <c r="I17">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J17">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.633172</v>
+      </c>
+      <c r="O17">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P17">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q17">
+        <v>0.07325524335022222</v>
+      </c>
+      <c r="R17">
+        <v>0.6592971901519999</v>
+      </c>
+      <c r="S17">
+        <v>4.088665866787147E-06</v>
+      </c>
+      <c r="T17">
+        <v>4.716920880041615E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.181466</v>
+      </c>
+      <c r="I18">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J18">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N18">
+        <v>183.180478</v>
+      </c>
+      <c r="O18">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P18">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q18">
+        <v>3.693447624527555</v>
+      </c>
+      <c r="R18">
+        <v>33.241028620748</v>
+      </c>
+      <c r="S18">
+        <v>0.0002061459704798875</v>
+      </c>
+      <c r="T18">
+        <v>0.000237821887181285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="H13">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="I13">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="J13">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>17.918771390257</v>
-      </c>
-      <c r="N13">
-        <v>17.918771390257</v>
-      </c>
-      <c r="O13">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="P13">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="Q13">
-        <v>249.2914514203654</v>
-      </c>
-      <c r="R13">
-        <v>249.2914514203654</v>
-      </c>
-      <c r="S13">
-        <v>0.02132145454896252</v>
-      </c>
-      <c r="T13">
-        <v>0.02132145454896252</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.181466</v>
+      </c>
+      <c r="I19">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J19">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.132278</v>
+      </c>
+      <c r="N19">
+        <v>0.396834</v>
+      </c>
+      <c r="O19">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P19">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q19">
+        <v>0.008001319849333333</v>
+      </c>
+      <c r="R19">
+        <v>0.07201187864399999</v>
+      </c>
+      <c r="S19">
+        <v>4.465854164296682E-07</v>
+      </c>
+      <c r="T19">
+        <v>5.15206706566723E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.181466</v>
+      </c>
+      <c r="I20">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J20">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.655122</v>
+      </c>
+      <c r="N20">
+        <v>1.965366</v>
+      </c>
+      <c r="O20">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P20">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q20">
+        <v>0.039627456284</v>
+      </c>
+      <c r="R20">
+        <v>0.356647106556</v>
+      </c>
+      <c r="S20">
+        <v>2.211765608659316E-06</v>
+      </c>
+      <c r="T20">
+        <v>2.55162043589565E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.181466</v>
+      </c>
+      <c r="I21">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J21">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.068426</v>
+      </c>
+      <c r="N21">
+        <v>38.136852</v>
+      </c>
+      <c r="O21">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P21">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q21">
+        <v>1.153423664172</v>
+      </c>
+      <c r="R21">
+        <v>6.920541985031999</v>
+      </c>
+      <c r="S21">
+        <v>6.437715240530029E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.951279859523766E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39.5815265</v>
+      </c>
+      <c r="H22">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J22">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.633172</v>
+      </c>
+      <c r="O22">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P22">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q22">
+        <v>47.93549793235267</v>
+      </c>
+      <c r="R22">
+        <v>287.612987594116</v>
+      </c>
+      <c r="S22">
+        <v>0.002675470386009736</v>
+      </c>
+      <c r="T22">
+        <v>0.002057718016727877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>39.5815265</v>
+      </c>
+      <c r="H23">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J23">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N23">
+        <v>183.180478</v>
+      </c>
+      <c r="O23">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P23">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q23">
+        <v>2416.854314746555</v>
+      </c>
+      <c r="R23">
+        <v>14501.12588847933</v>
+      </c>
+      <c r="S23">
+        <v>0.134894231317457</v>
+      </c>
+      <c r="T23">
+        <v>0.1037478462053061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>39.5815265</v>
+      </c>
+      <c r="H24">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J24">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.132278</v>
+      </c>
+      <c r="N24">
+        <v>0.396834</v>
+      </c>
+      <c r="O24">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P24">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q24">
+        <v>5.235765162367</v>
+      </c>
+      <c r="R24">
+        <v>31.414590974202</v>
+      </c>
+      <c r="S24">
+        <v>0.0002922288334165813</v>
+      </c>
+      <c r="T24">
+        <v>0.0002247546968462243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>39.5815265</v>
+      </c>
+      <c r="H25">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J25">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.655122</v>
+      </c>
+      <c r="N25">
+        <v>1.965366</v>
+      </c>
+      <c r="O25">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P25">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q25">
+        <v>25.930728803733</v>
+      </c>
+      <c r="R25">
+        <v>155.584372822398</v>
+      </c>
+      <c r="S25">
+        <v>0.001447296888413323</v>
+      </c>
+      <c r="T25">
+        <v>0.001113123471078276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>39.5815265</v>
+      </c>
+      <c r="H26">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J26">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.068426</v>
+      </c>
+      <c r="N26">
+        <v>38.136852</v>
+      </c>
+      <c r="O26">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P26">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q26">
+        <v>754.7574090322888</v>
+      </c>
+      <c r="R26">
+        <v>3019.029636129155</v>
+      </c>
+      <c r="S26">
+        <v>0.04212600647931181</v>
+      </c>
+      <c r="T26">
+        <v>0.02159955197873499</v>
       </c>
     </row>
   </sheetData>
